--- a/Examples/SuperDecisions/Dam_results.xlsx
+++ b/Examples/SuperDecisions/Dam_results.xlsx
@@ -677,22 +677,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0.375</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.6</v>
+        <v>2.667</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="11" t="n"/>
       <c r="H4" s="11" t="n"/>
       <c r="I4" s="12" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>2.667</v>
+        <v>0.625</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>1.6</v>
+        <v>1.667</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F5" s="7" t="n"/>
       <c r="G5" s="11" t="n"/>
       <c r="H5" s="11" t="n"/>
       <c r="I5" s="12" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6">
@@ -730,25 +730,25 @@
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1.667</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="11" t="n"/>
       <c r="H6" s="11" t="n"/>
       <c r="I6" s="12" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>1.333</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0.8</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>1.2</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.5</v>
@@ -898,28 +898,28 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0.167</v>
+        <v>0.833</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="11" t="n"/>
       <c r="I14" s="11" t="n"/>
       <c r="J14" s="12" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K14" s="12" t="n">
-        <v>0.167</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="15">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>0.833</v>
+        <v>0.167</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="11" t="n"/>
       <c r="I15" s="11" t="n"/>
       <c r="J15" s="12" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="K15" s="12" t="n">
-        <v>0.833</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="16">
@@ -963,10 +963,10 @@
         <v>0.667</v>
       </c>
       <c r="C16" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>0.8</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1</v>
@@ -994,10 +994,10 @@
         <v>0.667</v>
       </c>
       <c r="C17" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0.8</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>1</v>
@@ -1106,16 +1106,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>2.333</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="F23" s="6" t="n">
         <v>1.167</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>2.333</v>
       </c>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="11" t="n"/>
@@ -1134,28 +1134,28 @@
         </is>
       </c>
       <c r="B24" s="8" t="n">
-        <v>0.143</v>
+        <v>0.429</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.333</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.167</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="11" t="n"/>
       <c r="I24" s="11" t="n"/>
       <c r="J24" s="12" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="12" t="n">
-        <v>0.143</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="25">
@@ -1165,28 +1165,28 @@
         </is>
       </c>
       <c r="B25" s="8" t="n">
-        <v>0.429</v>
+        <v>0.143</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>3</v>
+        <v>0.333</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
       <c r="G25" s="7" t="n"/>
       <c r="H25" s="11" t="n"/>
       <c r="I25" s="11" t="n"/>
       <c r="J25" s="12" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K25" s="12" t="n">
-        <v>0.429</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="26">
@@ -1196,28 +1196,28 @@
         </is>
       </c>
       <c r="B26" s="8" t="n">
-        <v>0.857</v>
+        <v>0.429</v>
       </c>
       <c r="C26" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="7" t="n"/>
       <c r="H26" s="11" t="n"/>
       <c r="I26" s="11" t="n"/>
       <c r="J26" s="12" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>0.857</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="27">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B27" s="8" t="n">
-        <v>0.429</v>
+        <v>0.857</v>
       </c>
       <c r="C27" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
       <c r="H27" s="11" t="n"/>
       <c r="I27" s="11" t="n"/>
       <c r="J27" s="12" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K27" s="12" t="n">
-        <v>0.429</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="28">
@@ -1342,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>0.2</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>1</v>
@@ -1370,28 +1370,28 @@
         </is>
       </c>
       <c r="B34" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="7" t="n"/>
       <c r="H34" s="11" t="n"/>
       <c r="I34" s="11" t="n"/>
       <c r="J34" s="12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1401,28 +1401,28 @@
         </is>
       </c>
       <c r="B35" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" s="8" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" s="7" t="n"/>
       <c r="H35" s="11" t="n"/>
       <c r="I35" s="11" t="n"/>
       <c r="J35" s="12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K35" s="12" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36">
@@ -1435,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="8" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>0.2</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>1</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="8" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D37" s="8" t="n">
-        <v>0.2</v>
       </c>
       <c r="E37" s="8" t="n">
         <v>1</v>
@@ -1578,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="E43" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="E43" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="F43" s="6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="7" t="n"/>
       <c r="H43" s="11" t="n"/>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B44" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6" t="n">
         <v>2</v>
@@ -1624,10 +1624,10 @@
       <c r="H44" s="11" t="n"/>
       <c r="I44" s="11" t="n"/>
       <c r="J44" s="12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K44" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="n">
         <v>2</v>
-      </c>
-      <c r="C45" s="8" t="n">
-        <v>0.5</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>1</v>
@@ -1649,16 +1649,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="7" t="n"/>
       <c r="H45" s="11" t="n"/>
       <c r="I45" s="11" t="n"/>
       <c r="J45" s="12" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K45" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="B46" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="8" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D46" s="8" t="n">
         <v>0.5</v>
@@ -1680,16 +1680,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="7" t="n"/>
       <c r="H46" s="11" t="n"/>
       <c r="I46" s="11" t="n"/>
       <c r="J46" s="12" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K46" s="12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="B47" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="D47" s="8" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E47" s="8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>1</v>
@@ -1717,10 +1717,10 @@
       <c r="H47" s="11" t="n"/>
       <c r="I47" s="11" t="n"/>
       <c r="J47" s="12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K47" s="12" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
@@ -1819,28 +1819,28 @@
         <v>1</v>
       </c>
       <c r="C53" s="6" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>0.143</v>
+        <v>4</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="6" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H53" s="7" t="n"/>
       <c r="I53" s="11" t="n"/>
       <c r="J53" s="11" t="n"/>
       <c r="K53" s="12" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="L53" s="12" t="n">
-        <v>0.143</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="54">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="B54" s="8" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="6" t="n">
-        <v>2</v>
+        <v>0.286</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H54" s="7" t="n"/>
       <c r="I54" s="11" t="n"/>
       <c r="J54" s="11" t="n"/>
       <c r="K54" s="12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L54" s="12" t="n">
-        <v>0.571</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="55">
@@ -1884,31 +1884,31 @@
         </is>
       </c>
       <c r="B55" s="8" t="n">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="C55" s="8" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>3.5</v>
+        <v>0.143</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H55" s="7" t="n"/>
       <c r="I55" s="11" t="n"/>
       <c r="J55" s="11" t="n"/>
       <c r="K55" s="12" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="L55" s="12" t="n">
-        <v>1</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="56">
@@ -1918,19 +1918,19 @@
         </is>
       </c>
       <c r="B56" s="8" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C56" s="8" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6" t="n">
         <v>0.143</v>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6" t="n">
-        <v>0.5</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2</v>
@@ -1952,31 +1952,31 @@
         </is>
       </c>
       <c r="B57" s="8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C57" s="8" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D57" s="8" t="n">
-        <v>0.286</v>
+        <v>7</v>
       </c>
       <c r="E57" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" s="7" t="n"/>
       <c r="I57" s="11" t="n"/>
       <c r="J57" s="11" t="n"/>
       <c r="K57" s="12" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="L57" s="12" t="n">
-        <v>0.286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1986,19 +1986,19 @@
         </is>
       </c>
       <c r="B58" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D58" s="8" t="n">
         <v>5</v>
-      </c>
-      <c r="C58" s="8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>0.714</v>
       </c>
       <c r="E58" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F58" s="8" t="n">
-        <v>2.5</v>
+        <v>0.714</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>1</v>
@@ -2109,28 +2109,28 @@
         <v>1</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>0.25</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="F64" s="6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H64" s="7" t="n"/>
       <c r="I64" s="11" t="n"/>
       <c r="J64" s="11" t="n"/>
       <c r="K64" s="12" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L64" s="12" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="B65" s="8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="F65" s="6" t="n">
-        <v>2</v>
-      </c>
       <c r="G65" s="6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H65" s="7" t="n"/>
       <c r="I65" s="11" t="n"/>
       <c r="J65" s="11" t="n"/>
       <c r="K65" s="12" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L65" s="12" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="66">
@@ -2177,28 +2177,28 @@
         <v>4</v>
       </c>
       <c r="C66" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F66" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="G66" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="7" t="n"/>
       <c r="I66" s="11" t="n"/>
       <c r="J66" s="11" t="n"/>
       <c r="K66" s="12" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L66" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="B67" s="8" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="C67" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" s="8" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="6" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H67" s="7" t="n"/>
       <c r="I67" s="11" t="n"/>
       <c r="J67" s="11" t="n"/>
       <c r="K67" s="12" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="L67" s="12" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="68">
@@ -2242,31 +2242,31 @@
         </is>
       </c>
       <c r="B68" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="D68" s="8" t="n">
-        <v>0.25</v>
-      </c>
       <c r="E68" s="8" t="n">
-        <v>0.125</v>
+        <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7" t="n"/>
       <c r="I68" s="11" t="n"/>
       <c r="J68" s="11" t="n"/>
       <c r="K68" s="12" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="L68" s="12" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -2276,19 +2276,19 @@
         </is>
       </c>
       <c r="B69" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C69" s="8" t="n">
-        <v>2</v>
-      </c>
       <c r="D69" s="8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69" s="8" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>1</v>
@@ -2399,28 +2399,28 @@
         <v>1</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E75" s="6" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F75" s="6" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G75" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75" s="7" t="n"/>
       <c r="I75" s="11" t="n"/>
       <c r="J75" s="11" t="n"/>
       <c r="K75" s="12" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="L75" s="12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C76" s="5" t="n">
         <v>1</v>
@@ -2439,22 +2439,22 @@
         <v>5</v>
       </c>
       <c r="E76" s="6" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F76" s="6" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H76" s="7" t="n"/>
       <c r="I76" s="11" t="n"/>
       <c r="J76" s="11" t="n"/>
       <c r="K76" s="12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L76" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C77" s="8" t="n">
         <v>0.2</v>
@@ -2473,22 +2473,22 @@
         <v>1</v>
       </c>
       <c r="E77" s="6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F77" s="6" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="7" t="n"/>
       <c r="I77" s="11" t="n"/>
       <c r="J77" s="11" t="n"/>
       <c r="K77" s="12" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L77" s="12" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78">
@@ -2498,31 +2498,31 @@
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C78" s="8" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D78" s="8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="7" t="n"/>
       <c r="I78" s="11" t="n"/>
       <c r="J78" s="11" t="n"/>
       <c r="K78" s="12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L78" s="12" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L78" s="12" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -2532,31 +2532,31 @@
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="C79" s="8" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D79" s="8" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E79" s="8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7" t="n"/>
       <c r="I79" s="11" t="n"/>
       <c r="J79" s="11" t="n"/>
       <c r="K79" s="12" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L79" s="12" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C80" s="8" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D80" s="8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="8" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>1</v>
@@ -2689,28 +2689,28 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G86" s="6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D86" s="6" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="E86" s="6" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="F86" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="6" t="n">
-        <v>0.25</v>
       </c>
       <c r="H86" s="7" t="n"/>
       <c r="I86" s="11" t="n"/>
       <c r="J86" s="11" t="n"/>
       <c r="K86" s="12" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L86" s="12" t="n">
-        <v>0.167</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="87">
@@ -2720,31 +2720,31 @@
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>0.333</v>
+        <v>0.167</v>
       </c>
       <c r="E87" s="6" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="F87" s="6" t="n">
-        <v>2</v>
+        <v>0.167</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H87" s="7" t="n"/>
       <c r="I87" s="11" t="n"/>
       <c r="J87" s="11" t="n"/>
       <c r="K87" s="12" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L87" s="12" t="n">
-        <v>0.333</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="88">
@@ -2754,19 +2754,19 @@
         </is>
       </c>
       <c r="B88" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C88" s="8" t="n">
-        <v>3</v>
-      </c>
       <c r="D88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F88" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G88" s="6" t="n">
         <v>1.5</v>
@@ -2788,31 +2788,31 @@
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" s="8" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
       <c r="E89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="n">
-        <v>6</v>
+        <v>0.167</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="H89" s="7" t="n"/>
       <c r="I89" s="11" t="n"/>
       <c r="J89" s="11" t="n"/>
       <c r="K89" s="12" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="L89" s="12" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="90">
@@ -2822,31 +2822,31 @@
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="8" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="8" t="n">
-        <v>0.167</v>
+        <v>1</v>
       </c>
       <c r="E90" s="8" t="n">
-        <v>0.167</v>
+        <v>6</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="7" t="n"/>
       <c r="I90" s="11" t="n"/>
       <c r="J90" s="11" t="n"/>
       <c r="K90" s="12" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L90" s="12" t="n">
-        <v>0.167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2856,19 +2856,19 @@
         </is>
       </c>
       <c r="B91" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="C91" s="8" t="n">
-        <v>2</v>
       </c>
       <c r="D91" s="8" t="n">
         <v>0.667</v>
       </c>
       <c r="E91" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" s="8" t="n">
         <v>0.667</v>
-      </c>
-      <c r="F91" s="8" t="n">
-        <v>4</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>1</v>
@@ -2979,28 +2979,28 @@
         <v>1</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E97" s="6" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="F97" s="6" t="n">
-        <v>0.25</v>
+        <v>20</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H97" s="7" t="n"/>
       <c r="I97" s="11" t="n"/>
       <c r="J97" s="11" t="n"/>
       <c r="K97" s="12" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L97" s="12" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="C98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E98" s="6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F98" s="6" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H98" s="7" t="n"/>
       <c r="I98" s="11" t="n"/>
       <c r="J98" s="11" t="n"/>
       <c r="K98" s="12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L98" s="12" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99">
@@ -3044,31 +3044,31 @@
         </is>
       </c>
       <c r="B99" s="8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C99" s="8" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>0.125</v>
+        <v>4</v>
       </c>
       <c r="F99" s="6" t="n">
-        <v>0.125</v>
+        <v>8</v>
       </c>
       <c r="G99" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H99" s="7" t="n"/>
       <c r="I99" s="11" t="n"/>
       <c r="J99" s="11" t="n"/>
       <c r="K99" s="12" t="n">
-        <v>0.025</v>
+        <v>0.2</v>
       </c>
       <c r="L99" s="12" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="100">
@@ -3078,31 +3078,31 @@
         </is>
       </c>
       <c r="B100" s="8" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="C100" s="8" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D100" s="8" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="E100" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H100" s="7" t="n"/>
       <c r="I100" s="11" t="n"/>
       <c r="J100" s="11" t="n"/>
       <c r="K100" s="12" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="L100" s="12" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="101">
@@ -3112,31 +3112,31 @@
         </is>
       </c>
       <c r="B101" s="8" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="C101" s="8" t="n">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="D101" s="8" t="n">
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="E101" s="8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H101" s="7" t="n"/>
       <c r="I101" s="11" t="n"/>
       <c r="J101" s="11" t="n"/>
       <c r="K101" s="12" t="n">
-        <v>0.2</v>
+        <v>0.025</v>
       </c>
       <c r="L101" s="12" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="102">
@@ -3146,19 +3146,19 @@
         </is>
       </c>
       <c r="B102" s="8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C102" s="8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D102" s="8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E102" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="C102" s="8" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D102" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="8" t="n">
-        <v>0.125</v>
-      </c>
       <c r="F102" s="8" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>1</v>
@@ -3259,22 +3259,22 @@
         <v>1</v>
       </c>
       <c r="C108" s="6" t="n">
-        <v>0.75</v>
+        <v>2.667</v>
       </c>
       <c r="D108" s="6" t="n">
-        <v>2</v>
+        <v>2.667</v>
       </c>
       <c r="E108" s="6" t="n">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="11" t="n"/>
       <c r="H108" s="11" t="n"/>
       <c r="I108" s="12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J108" s="12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3284,25 +3284,25 @@
         </is>
       </c>
       <c r="B109" s="8" t="n">
-        <v>1.333</v>
+        <v>0.375</v>
       </c>
       <c r="C109" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="6" t="n">
-        <v>2.667</v>
+        <v>1</v>
       </c>
       <c r="E109" s="6" t="n">
-        <v>2.667</v>
+        <v>0.5</v>
       </c>
       <c r="F109" s="7" t="n"/>
       <c r="G109" s="11" t="n"/>
       <c r="H109" s="11" t="n"/>
       <c r="I109" s="12" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J109" s="12" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="110">
@@ -3312,16 +3312,16 @@
         </is>
       </c>
       <c r="B110" s="8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C110" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C110" s="8" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="6" t="n">
-        <v>1</v>
       </c>
       <c r="F110" s="7" t="n"/>
       <c r="G110" s="11" t="n"/>
@@ -3340,13 +3340,13 @@
         </is>
       </c>
       <c r="B111" s="8" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C111" s="8" t="n">
-        <v>0.375</v>
+        <v>2</v>
       </c>
       <c r="D111" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="5" t="n">
         <v>1</v>
@@ -3355,10 +3355,10 @@
       <c r="G111" s="11" t="n"/>
       <c r="H111" s="11" t="n"/>
       <c r="I111" s="12" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J111" s="12" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="112">
@@ -3447,13 +3447,13 @@
         <v>1</v>
       </c>
       <c r="C117" s="6" t="n">
-        <v>1</v>
+        <v>2.333</v>
       </c>
       <c r="D117" s="6" t="n">
         <v>2.333</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="11" t="n"/>
@@ -3472,25 +3472,25 @@
         </is>
       </c>
       <c r="B118" s="8" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
       <c r="C118" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="6" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
       <c r="E118" s="6" t="n">
-        <v>2.333</v>
+        <v>0.429</v>
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="11" t="n"/>
       <c r="H118" s="11" t="n"/>
       <c r="I118" s="12" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="J118" s="12" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="119">
@@ -3503,13 +3503,13 @@
         <v>0.429</v>
       </c>
       <c r="C119" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6" t="n">
         <v>0.429</v>
-      </c>
-      <c r="D119" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="6" t="n">
-        <v>1</v>
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="11" t="n"/>
@@ -3528,13 +3528,13 @@
         </is>
       </c>
       <c r="B120" s="8" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="C120" s="8" t="n">
-        <v>0.429</v>
+        <v>2.333</v>
       </c>
       <c r="D120" s="8" t="n">
-        <v>1</v>
+        <v>2.333</v>
       </c>
       <c r="E120" s="5" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
       <c r="G120" s="11" t="n"/>
       <c r="H120" s="11" t="n"/>
       <c r="I120" s="12" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J120" s="12" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3635,22 +3635,22 @@
         <v>1</v>
       </c>
       <c r="C126" s="6" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="D126" s="6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E126" s="6" t="n">
-        <v>2.4</v>
+        <v>0.167</v>
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="11" t="n"/>
       <c r="H126" s="11" t="n"/>
       <c r="I126" s="12" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="J126" s="12" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="127">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B127" s="8" t="n">
-        <v>0.167</v>
+        <v>2.5</v>
       </c>
       <c r="C127" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D127" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E127" s="6" t="n">
-        <v>0.4</v>
+        <v>0.417</v>
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="11" t="n"/>
       <c r="H127" s="11" t="n"/>
       <c r="I127" s="12" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J127" s="12" t="n">
-        <v>0.167</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="128">
@@ -3688,16 +3688,16 @@
         </is>
       </c>
       <c r="B128" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D128" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6" t="n">
         <v>0.083</v>
-      </c>
-      <c r="C128" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="6" t="n">
-        <v>0.2</v>
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="11" t="n"/>
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="B129" s="8" t="n">
-        <v>0.417</v>
+        <v>6</v>
       </c>
       <c r="C129" s="8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D129" s="8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E129" s="5" t="n">
         <v>1</v>
@@ -3731,10 +3731,10 @@
       <c r="G129" s="11" t="n"/>
       <c r="H129" s="11" t="n"/>
       <c r="I129" s="12" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J129" s="12" t="n">
-        <v>0.417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3823,22 +3823,22 @@
         <v>1</v>
       </c>
       <c r="C135" s="6" t="n">
-        <v>3.333</v>
+        <v>0.6</v>
       </c>
       <c r="D135" s="6" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E135" s="6" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="11" t="n"/>
       <c r="H135" s="11" t="n"/>
       <c r="I135" s="12" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="J135" s="12" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="136">
@@ -3848,25 +3848,25 @@
         </is>
       </c>
       <c r="B136" s="8" t="n">
-        <v>0.3</v>
+        <v>1.667</v>
       </c>
       <c r="C136" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D136" s="6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F136" s="7" t="n"/>
       <c r="G136" s="11" t="n"/>
       <c r="H136" s="11" t="n"/>
       <c r="I136" s="12" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J136" s="12" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B137" s="8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C137" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D137" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="6" t="n">
         <v>0.2</v>
-      </c>
-      <c r="C137" s="8" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D137" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="6" t="n">
-        <v>0.4</v>
       </c>
       <c r="F137" s="7" t="n"/>
       <c r="G137" s="11" t="n"/>
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B138" s="8" t="n">
-        <v>0.5</v>
+        <v>3.333</v>
       </c>
       <c r="C138" s="8" t="n">
-        <v>1.667</v>
+        <v>2</v>
       </c>
       <c r="D138" s="8" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E138" s="5" t="n">
         <v>1</v>
@@ -3919,10 +3919,10 @@
       <c r="G138" s="11" t="n"/>
       <c r="H138" s="11" t="n"/>
       <c r="I138" s="12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J138" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4011,22 +4011,22 @@
         <v>1</v>
       </c>
       <c r="C144" s="6" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="D144" s="6" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E144" s="6" t="n">
-        <v>1.5</v>
+        <v>1.667</v>
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="11" t="n"/>
       <c r="H144" s="11" t="n"/>
       <c r="I144" s="12" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J144" s="12" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
@@ -4036,25 +4036,25 @@
         </is>
       </c>
       <c r="B145" s="8" t="n">
-        <v>1.667</v>
+        <v>0.4</v>
       </c>
       <c r="C145" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D145" s="6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E145" s="6" t="n">
-        <v>2.5</v>
+        <v>0.667</v>
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="11" t="n"/>
       <c r="H145" s="11" t="n"/>
       <c r="I145" s="12" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J145" s="12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146">
@@ -4064,16 +4064,16 @@
         </is>
       </c>
       <c r="B146" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="6" t="n">
         <v>3.333</v>
-      </c>
-      <c r="C146" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="F146" s="7" t="n"/>
       <c r="G146" s="11" t="n"/>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="B147" s="8" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="C147" s="8" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D147" s="8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E147" s="5" t="n">
         <v>1</v>
@@ -4107,10 +4107,10 @@
       <c r="G147" s="11" t="n"/>
       <c r="H147" s="11" t="n"/>
       <c r="I147" s="12" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J147" s="12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="148">
@@ -4199,22 +4199,22 @@
         <v>1</v>
       </c>
       <c r="C153" s="6" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="D153" s="6" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E153" s="6" t="n">
-        <v>1.5</v>
+        <v>1.667</v>
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="11" t="n"/>
       <c r="H153" s="11" t="n"/>
       <c r="I153" s="12" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J153" s="12" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154">
@@ -4224,25 +4224,25 @@
         </is>
       </c>
       <c r="B154" s="8" t="n">
-        <v>1.667</v>
+        <v>0.4</v>
       </c>
       <c r="C154" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D154" s="6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E154" s="6" t="n">
-        <v>2.5</v>
+        <v>0.667</v>
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="11" t="n"/>
       <c r="H154" s="11" t="n"/>
       <c r="I154" s="12" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J154" s="12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="155">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B155" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="6" t="n">
         <v>3.333</v>
-      </c>
-      <c r="C155" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="11" t="n"/>
@@ -4280,13 +4280,13 @@
         </is>
       </c>
       <c r="B156" s="8" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="C156" s="8" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D156" s="8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E156" s="5" t="n">
         <v>1</v>
@@ -4295,10 +4295,10 @@
       <c r="G156" s="11" t="n"/>
       <c r="H156" s="11" t="n"/>
       <c r="I156" s="12" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J156" s="12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="157">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C4" s="17" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="C5" s="17" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="17" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="C6" s="17" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="17" t="n">
         <v>0</v>
@@ -6436,16 +6436,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="17" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="17" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G9" s="17" t="n">
-        <v>0.4</v>
       </c>
       <c r="H9" s="17" t="n">
         <v>0</v>
@@ -6528,16 +6528,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="17" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="17" t="n">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="17" t="n">
         <v>0.1</v>
       </c>
       <c r="G11" s="17" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H11" s="17" t="n">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="17" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="17" t="n">
         <v>0.1</v>
       </c>
       <c r="G12" s="17" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="17" t="n">
         <v>0</v>
@@ -6820,19 +6820,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="17" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="K13" s="17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="17" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="17" t="n">
         <v>0</v>
@@ -6912,19 +6912,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="17" t="n">
         <v>0.2</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K14" s="17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="17" t="n">
-        <v>0.5</v>
       </c>
       <c r="M14" s="17" t="n">
         <v>0</v>
@@ -7004,19 +7004,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="17" t="n">
         <v>0.3</v>
       </c>
       <c r="L15" s="17" t="n">
-        <v>0.025</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="17" t="n">
         <v>0</v>
@@ -7099,16 +7099,16 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="17" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="J16" s="17" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K16" s="17" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="L16" s="17" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="17" t="n">
         <v>0</v>
@@ -7188,19 +7188,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="I17" s="17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="17" t="n">
         <v>0.05</v>
       </c>
-      <c r="J17" s="17" t="n">
-        <v>0.5</v>
-      </c>
       <c r="K17" s="17" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="17" t="n">
-        <v>0.2</v>
+        <v>0.025</v>
       </c>
       <c r="M17" s="17" t="n">
         <v>0</v>
@@ -7391,22 +7391,22 @@
         <v>0</v>
       </c>
       <c r="M19" s="17" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N19" s="17" t="n">
         <v>0.35</v>
       </c>
       <c r="O19" s="17" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="P19" s="17" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="Q19" s="17" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="R19" s="17" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="S19" s="17" t="n">
         <v>0</v>
@@ -7483,22 +7483,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="17" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="N20" s="17" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="O20" s="17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P20" s="17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q20" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="P20" s="17" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q20" s="17" t="n">
-        <v>0.25</v>
-      </c>
       <c r="R20" s="17" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S20" s="17" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>0</v>
       </c>
       <c r="M22" s="17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O22" s="17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="17" t="n">
         <v>0.15</v>
       </c>
-      <c r="N22" s="17" t="n">
+      <c r="R22" s="17" t="n">
         <v>0.15</v>
-      </c>
-      <c r="O22" s="17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P22" s="17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q22" s="17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R22" s="17" t="n">
-        <v>0.1</v>
       </c>
       <c r="S22" s="17" t="n">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="C4" s="17" t="n">
-        <v>0.027</v>
+        <v>0.074</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         </is>
       </c>
       <c r="C5" s="17" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.046</v>
       </c>
       <c r="D5" s="17" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="C6" s="17" t="n">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
       <c r="D6" s="17" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C7" s="17" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="D7" s="17" t="n">
         <v>0</v>
@@ -9196,19 +9196,19 @@
         </is>
       </c>
       <c r="C8" s="17" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="D8" s="17" t="n">
-        <v>0.065</v>
+        <v>0.068</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="F8" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G8" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="H8" s="17" t="n">
         <v>0</v>
@@ -9288,19 +9288,19 @@
         </is>
       </c>
       <c r="C9" s="17" t="n">
-        <v>0.028</v>
+        <v>0.047</v>
       </c>
       <c r="D9" s="17" t="n">
-        <v>0.011</v>
+        <v>0.057</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.011</v>
+        <v>0.034</v>
       </c>
       <c r="F9" s="17" t="n">
-        <v>0.044</v>
+        <v>0.113</v>
       </c>
       <c r="G9" s="17" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="H9" s="17" t="n">
         <v>0</v>
@@ -9380,19 +9380,19 @@
         </is>
       </c>
       <c r="C10" s="17" t="n">
-        <v>0.047</v>
+        <v>0.026</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>0.055</v>
+        <v>0.011</v>
       </c>
       <c r="E10" s="17" t="n">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="F10" s="17" t="n">
-        <v>0.109</v>
+        <v>0.045</v>
       </c>
       <c r="G10" s="17" t="n">
-        <v>0.044</v>
+        <v>0.09</v>
       </c>
       <c r="H10" s="17" t="n">
         <v>0</v>
@@ -9472,19 +9472,19 @@
         </is>
       </c>
       <c r="C11" s="17" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="D11" s="17" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>0.065</v>
+        <v>0.034</v>
       </c>
       <c r="F11" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G11" s="17" t="n">
-        <v>0.022</v>
+        <v>0.045</v>
       </c>
       <c r="H11" s="17" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         </is>
       </c>
       <c r="C12" s="17" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
       <c r="D12" s="17" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="E12" s="17" t="n">
-        <v>0.033</v>
+        <v>0.068</v>
       </c>
       <c r="F12" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G12" s="17" t="n">
-        <v>0.044</v>
+        <v>0.023</v>
       </c>
       <c r="H12" s="17" t="n">
         <v>0</v>
@@ -9660,34 +9660,34 @@
         </is>
       </c>
       <c r="C13" s="17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.041</v>
       </c>
       <c r="D13" s="17" t="n">
-        <v>0.011</v>
+        <v>0.049</v>
       </c>
       <c r="E13" s="17" t="n">
-        <v>0.011</v>
+        <v>0.059</v>
       </c>
       <c r="F13" s="17" t="n">
-        <v>0.011</v>
+        <v>0.041</v>
       </c>
       <c r="G13" s="17" t="n">
-        <v>0.011</v>
+        <v>0.047</v>
       </c>
       <c r="H13" s="17" t="n">
-        <v>0.014</v>
+        <v>0.059</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="J13" s="17" t="n">
-        <v>0.014</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K13" s="17" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="L13" s="17" t="n">
-        <v>0.014</v>
+        <v>0.144</v>
       </c>
       <c r="M13" s="17" t="n">
         <v>0</v>
@@ -9752,34 +9752,34 @@
         </is>
       </c>
       <c r="C14" s="17" t="n">
-        <v>0.04</v>
+        <v>0.029</v>
       </c>
       <c r="D14" s="17" t="n">
-        <v>0.054</v>
+        <v>0.027</v>
       </c>
       <c r="E14" s="17" t="n">
-        <v>0.047</v>
+        <v>0.031</v>
       </c>
       <c r="F14" s="17" t="n">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
       <c r="G14" s="17" t="n">
-        <v>0.048</v>
+        <v>0.056</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="I14" s="17" t="n">
-        <v>0.028</v>
+        <v>0.015</v>
       </c>
       <c r="J14" s="17" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="K14" s="17" t="n">
-        <v>0.028</v>
+        <v>0.015</v>
       </c>
       <c r="L14" s="17" t="n">
-        <v>0.138</v>
+        <v>0.057</v>
       </c>
       <c r="M14" s="17" t="n">
         <v>0</v>
@@ -9844,34 +9844,34 @@
         </is>
       </c>
       <c r="C15" s="17" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="D15" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="17" t="n">
         <v>0.042</v>
       </c>
-      <c r="E15" s="17" t="n">
-        <v>0.051</v>
-      </c>
       <c r="F15" s="17" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J15" s="17" t="n">
         <v>0.029</v>
       </c>
-      <c r="G15" s="17" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H15" s="17" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J15" s="17" t="n">
-        <v>0.014</v>
-      </c>
       <c r="K15" s="17" t="n">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="L15" s="17" t="n">
-        <v>0.007</v>
+        <v>0.057</v>
       </c>
       <c r="M15" s="17" t="n">
         <v>0</v>
@@ -9936,34 +9936,34 @@
         </is>
       </c>
       <c r="C16" s="17" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D16" s="17" t="n">
-        <v>0.035</v>
+        <v>0.011</v>
       </c>
       <c r="E16" s="17" t="n">
-        <v>0.038</v>
+        <v>0.011</v>
       </c>
       <c r="F16" s="17" t="n">
-        <v>0.04</v>
+        <v>0.011</v>
       </c>
       <c r="G16" s="17" t="n">
-        <v>0.056</v>
+        <v>0.011</v>
       </c>
       <c r="H16" s="17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J16" s="17" t="n">
         <v>0.014</v>
       </c>
-      <c r="I16" s="17" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <v>0.028</v>
-      </c>
       <c r="K16" s="17" t="n">
-        <v>0.083</v>
+        <v>0.015</v>
       </c>
       <c r="L16" s="17" t="n">
-        <v>0.055</v>
+        <v>0.014</v>
       </c>
       <c r="M16" s="17" t="n">
         <v>0</v>
@@ -10028,34 +10028,34 @@
         </is>
       </c>
       <c r="C17" s="17" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <v>0.036</v>
       </c>
-      <c r="D17" s="17" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="E17" s="17" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="F17" s="17" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>0.038</v>
-      </c>
       <c r="H17" s="17" t="n">
-        <v>0.028</v>
+        <v>0.103</v>
       </c>
       <c r="I17" s="17" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J17" s="17" t="n">
         <v>0.014</v>
       </c>
-      <c r="J17" s="17" t="n">
-        <v>0.142</v>
-      </c>
       <c r="K17" s="17" t="n">
-        <v>0.014</v>
+        <v>0.089</v>
       </c>
       <c r="L17" s="17" t="n">
-        <v>0.055</v>
+        <v>0.007</v>
       </c>
       <c r="M17" s="17" t="n">
         <v>0</v>
@@ -10120,31 +10120,31 @@
         </is>
       </c>
       <c r="C18" s="17" t="n">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="D18" s="17" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
       <c r="E18" s="17" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="F18" s="17" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="I18" s="17" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="J18" s="17" t="n">
         <v>0.014</v>
       </c>
       <c r="K18" s="17" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="L18" s="17" t="n">
         <v>0.007</v>
@@ -10216,52 +10216,52 @@
         </is>
       </c>
       <c r="C19" s="17" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="D19" s="17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="M19" s="17" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="N19" s="17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O19" s="17" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="P19" s="17" t="n">
         <v>0.063</v>
       </c>
-      <c r="D19" s="17" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="E19" s="17" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F19" s="17" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="G19" s="17" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="H19" s="17" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="K19" s="17" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="L19" s="17" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="M19" s="17" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="N19" s="17" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O19" s="17" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="P19" s="17" t="n">
-        <v>0.189</v>
-      </c>
       <c r="Q19" s="17" t="n">
-        <v>0.062</v>
+        <v>0.106</v>
       </c>
       <c r="R19" s="17" t="n">
-        <v>0.062</v>
+        <v>0.106</v>
       </c>
       <c r="S19" s="17" t="n">
         <v>0</v>
@@ -10308,52 +10308,52 @@
         </is>
       </c>
       <c r="C20" s="17" t="n">
-        <v>0.042</v>
+        <v>0.029</v>
       </c>
       <c r="D20" s="17" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I20" s="17" t="n">
         <v>0.052</v>
       </c>
-      <c r="E20" s="17" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="F20" s="17" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G20" s="17" t="n">
+      <c r="J20" s="17" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K20" s="17" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="L20" s="17" t="n">
         <v>0.05</v>
       </c>
-      <c r="H20" s="17" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J20" s="17" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="K20" s="17" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="L20" s="17" t="n">
-        <v>0.078</v>
-      </c>
       <c r="M20" s="17" t="n">
-        <v>0.148</v>
+        <v>0.059</v>
       </c>
       <c r="N20" s="17" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="O20" s="17" t="n">
-        <v>0.037</v>
+        <v>0.106</v>
       </c>
       <c r="P20" s="17" t="n">
-        <v>0.057</v>
+        <v>0.104</v>
       </c>
       <c r="Q20" s="17" t="n">
-        <v>0.104</v>
+        <v>0.043</v>
       </c>
       <c r="R20" s="17" t="n">
-        <v>0.104</v>
+        <v>0.043</v>
       </c>
       <c r="S20" s="17" t="n">
         <v>0</v>
@@ -10400,52 +10400,52 @@
         </is>
       </c>
       <c r="C21" s="17" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="D21" s="17" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="E21" s="17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G21" s="17" t="n">
         <v>0.051</v>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="H21" s="17" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="17" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M21" s="17" t="n">
         <v>0.059</v>
       </c>
-      <c r="G21" s="17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H21" s="17" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J21" s="17" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="K21" s="17" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="L21" s="17" t="n">
+      <c r="N21" s="17" t="n">
         <v>0.06</v>
       </c>
-      <c r="M21" s="17" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="N21" s="17" t="n">
-        <v>0.056</v>
-      </c>
       <c r="O21" s="17" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="P21" s="17" t="n">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="Q21" s="17" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="R21" s="17" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="S21" s="17" t="n">
         <v>0</v>
@@ -10492,52 +10492,52 @@
         </is>
       </c>
       <c r="C22" s="17" t="n">
-        <v>0.031</v>
+        <v>0.061</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>0.037</v>
+        <v>0.073</v>
       </c>
       <c r="E22" s="17" t="n">
-        <v>0.038</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F22" s="17" t="n">
-        <v>0.035</v>
+        <v>0.079</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>0.038</v>
+        <v>0.077</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>0.048</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" s="17" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="J22" s="17" t="n">
-        <v>0.039</v>
+        <v>0.101</v>
       </c>
       <c r="K22" s="17" t="n">
-        <v>0.055</v>
+        <v>0.097</v>
       </c>
       <c r="L22" s="17" t="n">
-        <v>0.045</v>
+        <v>0.107</v>
       </c>
       <c r="M22" s="17" t="n">
-        <v>0.056</v>
+        <v>0.118</v>
       </c>
       <c r="N22" s="17" t="n">
-        <v>0.056</v>
+        <v>0.14</v>
       </c>
       <c r="O22" s="17" t="n">
-        <v>0.093</v>
+        <v>0.255</v>
       </c>
       <c r="P22" s="17" t="n">
-        <v>0.094</v>
+        <v>0.208</v>
       </c>
       <c r="Q22" s="17" t="n">
-        <v>0.042</v>
+        <v>0.064</v>
       </c>
       <c r="R22" s="17" t="n">
-        <v>0.042</v>
+        <v>0.064</v>
       </c>
       <c r="S22" s="17" t="n">
         <v>0</v>
@@ -10588,52 +10588,52 @@
         </is>
       </c>
       <c r="C23" s="17" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="D23" s="17" t="n">
-        <v>0.038</v>
+        <v>0.029</v>
       </c>
       <c r="E23" s="17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F23" s="17" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="G23" s="17" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>0.052</v>
+        <v>0.041</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>0.057</v>
+        <v>0.03</v>
       </c>
       <c r="J23" s="17" t="n">
-        <v>0.038</v>
+        <v>0.046</v>
       </c>
       <c r="K23" s="17" t="n">
-        <v>0.058</v>
+        <v>0.033</v>
       </c>
       <c r="L23" s="17" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="M23" s="17" t="n">
-        <v>0.056</v>
+        <v>0.078</v>
       </c>
       <c r="N23" s="17" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O23" s="17" t="n">
-        <v>0.111</v>
+        <v>0.021</v>
       </c>
       <c r="P23" s="17" t="n">
-        <v>0.094</v>
+        <v>0.031</v>
       </c>
       <c r="Q23" s="17" t="n">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="R23" s="17" t="n">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="S23" s="17" t="n">
         <v>0.25</v>
@@ -10680,52 +10680,52 @@
         </is>
       </c>
       <c r="C24" s="17" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="D24" s="17" t="n">
-        <v>0.038</v>
+        <v>0.029</v>
       </c>
       <c r="E24" s="17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F24" s="17" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>0.052</v>
+        <v>0.041</v>
       </c>
       <c r="I24" s="17" t="n">
-        <v>0.057</v>
+        <v>0.03</v>
       </c>
       <c r="J24" s="17" t="n">
-        <v>0.038</v>
+        <v>0.046</v>
       </c>
       <c r="K24" s="17" t="n">
-        <v>0.058</v>
+        <v>0.033</v>
       </c>
       <c r="L24" s="17" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="M24" s="17" t="n">
-        <v>0.056</v>
+        <v>0.078</v>
       </c>
       <c r="N24" s="17" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O24" s="17" t="n">
-        <v>0.111</v>
+        <v>0.021</v>
       </c>
       <c r="P24" s="17" t="n">
-        <v>0.094</v>
+        <v>0.031</v>
       </c>
       <c r="Q24" s="17" t="n">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="R24" s="17" t="n">
-        <v>0.031</v>
+        <v>0.053</v>
       </c>
       <c r="S24" s="17" t="n">
         <v>0.25</v>
@@ -10772,52 +10772,52 @@
         </is>
       </c>
       <c r="C25" s="17" t="n">
-        <v>0.031</v>
+        <v>0.022</v>
       </c>
       <c r="D25" s="17" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I25" s="17" t="n">
         <v>0.039</v>
       </c>
-      <c r="E25" s="17" t="n">
+      <c r="J25" s="17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L25" s="17" t="n">
         <v>0.037</v>
       </c>
-      <c r="F25" s="17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G25" s="17" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="H25" s="17" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="I25" s="17" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="J25" s="17" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="K25" s="17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L25" s="17" t="n">
-        <v>0.059</v>
-      </c>
       <c r="M25" s="17" t="n">
-        <v>0.111</v>
+        <v>0.044</v>
       </c>
       <c r="N25" s="17" t="n">
-        <v>0.097</v>
+        <v>0.045</v>
       </c>
       <c r="O25" s="17" t="n">
-        <v>0.028</v>
+        <v>0.08</v>
       </c>
       <c r="P25" s="17" t="n">
-        <v>0.042</v>
+        <v>0.078</v>
       </c>
       <c r="Q25" s="17" t="n">
-        <v>0.078</v>
+        <v>0.032</v>
       </c>
       <c r="R25" s="17" t="n">
-        <v>0.078</v>
+        <v>0.032</v>
       </c>
       <c r="S25" s="17" t="n">
         <v>0</v>
@@ -10864,52 +10864,52 @@
         </is>
       </c>
       <c r="C26" s="17" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D26" s="17" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H26" s="17" t="n">
         <v>0.01</v>
       </c>
-      <c r="D26" s="17" t="n">
+      <c r="I26" s="17" t="n">
         <v>0.013</v>
       </c>
-      <c r="E26" s="17" t="n">
+      <c r="J26" s="17" t="n">
         <v>0.012</v>
       </c>
-      <c r="F26" s="17" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="G26" s="17" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="K26" s="17" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L26" s="17" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M26" s="17" t="n">
         <v>0.015</v>
       </c>
-      <c r="I26" s="17" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="J26" s="17" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K26" s="17" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="L26" s="17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M26" s="17" t="n">
-        <v>0.037</v>
-      </c>
       <c r="N26" s="17" t="n">
-        <v>0.032</v>
+        <v>0.015</v>
       </c>
       <c r="O26" s="17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="P26" s="17" t="n">
-        <v>0.014</v>
+        <v>0.026</v>
       </c>
       <c r="Q26" s="17" t="n">
-        <v>0.026</v>
+        <v>0.011</v>
       </c>
       <c r="R26" s="17" t="n">
-        <v>0.026</v>
+        <v>0.011</v>
       </c>
       <c r="S26" s="17" t="n">
         <v>0</v>
@@ -10956,52 +10956,52 @@
         </is>
       </c>
       <c r="C27" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="D27" s="17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="F27" s="17" t="n">
         <v>0.027</v>
       </c>
-      <c r="E27" s="17" t="n">
+      <c r="G27" s="17" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H27" s="17" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I27" s="17" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="J27" s="17" t="n">
         <v>0.025</v>
       </c>
-      <c r="F27" s="17" t="n">
+      <c r="K27" s="17" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L27" s="17" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M27" s="17" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N27" s="17" t="n">
         <v>0.03</v>
       </c>
-      <c r="G27" s="17" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H27" s="17" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="I27" s="17" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="J27" s="17" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="K27" s="17" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="L27" s="17" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M27" s="17" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="N27" s="17" t="n">
-        <v>0.028</v>
-      </c>
       <c r="O27" s="17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="P27" s="17" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="Q27" s="17" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="R27" s="17" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="S27" s="17" t="n">
         <v>0</v>
@@ -11048,52 +11048,52 @@
         </is>
       </c>
       <c r="C28" s="17" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="D28" s="17" t="n">
-        <v>0.018</v>
+        <v>0.037</v>
       </c>
       <c r="E28" s="17" t="n">
-        <v>0.019</v>
+        <v>0.036</v>
       </c>
       <c r="F28" s="17" t="n">
-        <v>0.018</v>
+        <v>0.04</v>
       </c>
       <c r="G28" s="17" t="n">
-        <v>0.019</v>
+        <v>0.038</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>0.024</v>
+        <v>0.035</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>0.027</v>
+        <v>0.055</v>
       </c>
       <c r="J28" s="17" t="n">
-        <v>0.019</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="17" t="n">
-        <v>0.027</v>
+        <v>0.048</v>
       </c>
       <c r="L28" s="17" t="n">
-        <v>0.022</v>
+        <v>0.053</v>
       </c>
       <c r="M28" s="17" t="n">
-        <v>0.028</v>
+        <v>0.059</v>
       </c>
       <c r="N28" s="17" t="n">
-        <v>0.028</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O28" s="17" t="n">
-        <v>0.046</v>
+        <v>0.128</v>
       </c>
       <c r="P28" s="17" t="n">
-        <v>0.047</v>
+        <v>0.104</v>
       </c>
       <c r="Q28" s="17" t="n">
-        <v>0.021</v>
+        <v>0.032</v>
       </c>
       <c r="R28" s="17" t="n">
-        <v>0.021</v>
+        <v>0.032</v>
       </c>
       <c r="S28" s="17" t="n">
         <v>0</v>
@@ -11144,40 +11144,40 @@
         </is>
       </c>
       <c r="C29" s="17" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="D29" s="17" t="n">
-        <v>0.108</v>
+        <v>0.099</v>
       </c>
       <c r="E29" s="17" t="n">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="F29" s="17" t="n">
-        <v>0.108</v>
+        <v>0.098</v>
       </c>
       <c r="G29" s="17" t="n">
-        <v>0.107</v>
+        <v>0.098</v>
       </c>
       <c r="H29" s="17" t="n">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="I29" s="17" t="n">
-        <v>0.133</v>
+        <v>0.127</v>
       </c>
       <c r="J29" s="17" t="n">
-        <v>0.142</v>
+        <v>0.125</v>
       </c>
       <c r="K29" s="17" t="n">
-        <v>0.133</v>
+        <v>0.129</v>
       </c>
       <c r="L29" s="17" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="M29" s="17" t="n">
-        <v>0.198</v>
+        <v>0.175</v>
       </c>
       <c r="N29" s="17" t="n">
-        <v>0.194</v>
+        <v>0.174</v>
       </c>
       <c r="O29" s="17" t="n">
         <v>0.169</v>
@@ -11186,10 +11186,10 @@
         <v>0.175</v>
       </c>
       <c r="Q29" s="17" t="n">
-        <v>0.208</v>
+        <v>0.195</v>
       </c>
       <c r="R29" s="17" t="n">
-        <v>0.208</v>
+        <v>0.195</v>
       </c>
       <c r="S29" s="17" t="n">
         <v>0.25</v>
@@ -11236,52 +11236,52 @@
         </is>
       </c>
       <c r="C30" s="17" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="D30" s="17" t="n">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="E30" s="17" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="F30" s="17" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="G30" s="17" t="n">
         <v>0.063</v>
       </c>
-      <c r="G30" s="17" t="n">
-        <v>0.067</v>
-      </c>
       <c r="H30" s="17" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I30" s="17" t="n">
-        <v>0.089</v>
+        <v>0.077</v>
       </c>
       <c r="J30" s="17" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K30" s="17" t="n">
         <v>0.075</v>
       </c>
-      <c r="K30" s="17" t="n">
-        <v>0.09</v>
-      </c>
       <c r="L30" s="17" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="M30" s="17" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="N30" s="17" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="O30" s="17" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="P30" s="17" t="n">
         <v>0.117</v>
       </c>
-      <c r="N30" s="17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O30" s="17" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="P30" s="17" t="n">
-        <v>0.137</v>
-      </c>
       <c r="Q30" s="17" t="n">
-        <v>0.083</v>
+        <v>0.093</v>
       </c>
       <c r="R30" s="17" t="n">
-        <v>0.083</v>
+        <v>0.093</v>
       </c>
       <c r="S30" s="17" t="n">
         <v>0.25</v>
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="C3" s="17" t="n">
-        <v>0.027</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="4">
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="C4" s="17" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="5">
@@ -11400,7 +11400,7 @@
         </is>
       </c>
       <c r="C5" s="17" t="n">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="6">
@@ -11411,7 +11411,7 @@
         </is>
       </c>
       <c r="C6" s="17" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="7">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="C7" s="17" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="8">
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="C8" s="17" t="n">
-        <v>0.028</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="9">
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="C9" s="17" t="n">
-        <v>0.047</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="10">
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="C10" s="17" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11">
@@ -11470,7 +11470,7 @@
         </is>
       </c>
       <c r="C11" s="17" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="12">
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="C12" s="17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="C13" s="17" t="n">
-        <v>0.04</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="14">
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="C14" s="17" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="C15" s="17" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -11529,7 +11529,7 @@
         </is>
       </c>
       <c r="C16" s="17" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="17">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="C17" s="17" t="n">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="18">
@@ -11555,7 +11555,7 @@
         </is>
       </c>
       <c r="C18" s="17" t="n">
-        <v>0.063</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="19">
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C19" s="17" t="n">
-        <v>0.042</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="20">
@@ -11577,7 +11577,7 @@
         </is>
       </c>
       <c r="C20" s="17" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="21">
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="C21" s="17" t="n">
-        <v>0.031</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="22">
@@ -11603,7 +11603,7 @@
         </is>
       </c>
       <c r="C22" s="17" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="23">
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="C23" s="17" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="24">
@@ -11625,7 +11625,7 @@
         </is>
       </c>
       <c r="C24" s="17" t="n">
-        <v>0.031</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="25">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="C25" s="17" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="26">
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="C26" s="17" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="27">
@@ -11658,7 +11658,7 @@
         </is>
       </c>
       <c r="C27" s="17" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
@@ -11673,7 +11673,7 @@
         </is>
       </c>
       <c r="C28" s="17" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="29">
@@ -11684,7 +11684,7 @@
         </is>
       </c>
       <c r="C29" s="17" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="C3" s="17" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -11756,7 +11756,7 @@
         </is>
       </c>
       <c r="C4" s="17" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="C5" s="17" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="C7" s="17" t="n">
-        <v>0.23</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="8">
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="C8" s="17" t="n">
-        <v>0.158</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="9">
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="C9" s="17" t="n">
-        <v>0.263</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="10">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="C10" s="17" t="n">
-        <v>0.195</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="11">
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="C11" s="17" t="n">
-        <v>0.155</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="C12" s="17" t="n">
-        <v>0.05</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="13">
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="C13" s="17" t="n">
-        <v>0.224</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="14">
@@ -11874,7 +11874,7 @@
         </is>
       </c>
       <c r="C14" s="17" t="n">
-        <v>0.187</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="15">
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="C15" s="17" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="C16" s="17" t="n">
-        <v>0.203</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="17">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="C17" s="17" t="n">
-        <v>0.145</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="18">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="C18" s="17" t="n">
-        <v>0.353</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="19">
@@ -11933,7 +11933,7 @@
         </is>
       </c>
       <c r="C19" s="17" t="n">
-        <v>0.233</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="20">
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C20" s="17" t="n">
-        <v>0.243</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="21">
@@ -11955,7 +11955,7 @@
         </is>
       </c>
       <c r="C21" s="17" t="n">
-        <v>0.17</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="22">
@@ -11970,7 +11970,7 @@
         </is>
       </c>
       <c r="C22" s="17" t="n">
-        <v>0.223</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="23">
@@ -11981,7 +11981,7 @@
         </is>
       </c>
       <c r="C23" s="17" t="n">
-        <v>0.223</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="24">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="C24" s="17" t="n">
-        <v>0.22</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="25">
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="C25" s="17" t="n">
-        <v>0.073</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="26">
@@ -12014,7 +12014,7 @@
         </is>
       </c>
       <c r="C26" s="17" t="n">
-        <v>0.154</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="27">
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C27" s="17" t="n">
-        <v>0.107</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="28">
@@ -12040,7 +12040,7 @@
         </is>
       </c>
       <c r="C28" s="17" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="29">
@@ -12051,7 +12051,7 @@
         </is>
       </c>
       <c r="C29" s="17" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="30"/>
